--- a/intermediate.xlsx
+++ b/intermediate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ingesting_memory</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Chunk Size</t>
         </is>
       </c>
@@ -483,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,27 +507,30 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27.24928498268127</v>
+        <v>21.1474392414093</v>
       </c>
       <c r="F2" t="n">
-        <v>74.40625</v>
+        <v>67.046875</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Binary search is a search algorithm used on sorted data types (like arrays or lists). It works by repeatedly dividing the search interval in half, by comparing each element in the middle of the current interval with the target value. If the target matches the middle element, its position is returned. If the target is less than the middle element, the search continues on the lower half of the current interval. Otherwise, it continues on the upper half. The time complexity of binary search is O(log n) in the best and average cases, making it more efficient than linear search for large datasets. This implementation was found in the provided document titled "02 - Foundations.pdf" (page 1, chunk Searching).</t>
+          <t xml:space="preserve"> Binary search is a method used to find an item from a sorted data set, specifically an array of values that are already in order. It works by repeatedly dividing the search interval in half until the value is found or the search interval becomes empty. In Python, binary search can be implemented using recursion or iteration. The time complexity for best case (direct match) and average case is O(log n), but worst case (if the middle element is equal to neither the left nor right element) is O(log n).</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>70.04897975921631</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I2" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J2" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -541,27 +549,30 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.529637813568115</v>
+        <v>12.52345252037048</v>
       </c>
       <c r="F3" t="n">
-        <v>50.9921875</v>
+        <v>49.77734375</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I don't know. The provided context discusses B+Tree operations and does not provide information about AVL trees or their balance factors. To answer this question accurately, we would need additional context that explains how to perform insertions in an AVL tree and what imbalance cases can occur during those insertions.</t>
+          <t xml:space="preserve"> I don't know. The provided context does not relate to AVL trees. To answer this question, we would need to refer to a walkthrough or explanation of AVL tree insertions. In an AVL tree, the balance factor is calculated as the height difference between the left and right subtrees, so when inserting a new node, we should be looking for imbalance in the balance factors of the nodes.</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>70.04897975921631</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I3" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J3" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -580,31 +591,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.41375088691711</v>
+        <v>21.55141568183899</v>
       </c>
       <c r="F4" t="n">
-        <v>46.7890625</v>
+        <v>47.59765625</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, and Durability) compliant transactions are:
-1. Atomicity: Each transaction is treated as an atomic unit. It is either fully executed or not executed at all.
-2. Consistency: A transaction takes the database from one consistent state to another consistent state, ensuring that all data meets integrity constraints.
-3. Isolation: Transactions are executed in isolation from each other, meaning the changes made by one transaction do not affect others until they are committed.
-4. Durability: Once a transaction is successfully completed and committed, its changes become permanent and are preserved even in the event of system failure.</t>
+1. Atomicity: A transaction is treated as an atomic unit. It is either fully executed or not executed at all.
+2. Consistency: A transaction takes a database from one consistent state to another consistent state. All data should meet integrity constraints during the transaction.
+3. Isolation: Each transaction is isolated, meaning that other transactions cannot see uncommitted changes until the current transaction is committed or aborted.
+4. Durability: Once a transaction is completed and committed successfully, its changes are permanent, even in the event of a system failure. Committed transactions are preserved.</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>70.04897975921631</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I4" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J4" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -623,27 +637,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.773957014083862</v>
+        <v>26.92155742645264</v>
       </c>
       <c r="F5" t="n">
-        <v>3.87109375</v>
+        <v>48.8203125</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 } genres: "Suspense" project title 1 _id 0</t>
+          <t xml:space="preserve"> MongoDB Query (Assuming you have a collection named `movies` with fields `year`, `genres`, and `title`)
+```mongodb
+dbmovies.find({
+    $and: [
+        { year: { $gte: 2010, $lte: 2015 } },
+        { genres: "Suspense" }
+    ]
+}).projection({ title: 1 })
+```
+This query will return the titles of all movies from the `movies` collection that were released between 2010 and 2015, and belong to the `Suspense` genre. The projection is used to only return the `title` field in the result.</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>70.04897975921631</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I5" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J5" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -662,27 +688,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.160719394683838</v>
+        <v>10.69407844543457</v>
       </c>
       <c r="F6" t="n">
-        <v>47.0234375</v>
+        <v>-42.79296875</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I don't know. The provided context does not mention when SQL was originally released.</t>
+          <t xml:space="preserve"> I don't have specific dates for when SQL was originally released in the given context. However, SQL (Structured Query Language) is an established language used in relational database management systems and has been in use since the 1970s. The exact date of its first use may not be explicitly mentioned in the provided documents.</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>70.04897975921631</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I6" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J6" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -692,7 +721,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>llama2</t>
+          <t>mistral:latest</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -701,39 +730,45 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34.86870360374451</v>
+        <v>38.19622039794922</v>
       </c>
       <c r="F7" t="n">
-        <v>49.140625</v>
+        <v>45.21484375</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Binary search is a search algorithm used on sorted data structures, such as arrays or linked lists. It works by repeatedly dividing the search interval in half, based on the value of the middle element, until it finds the target value or determines that the target value does not exist within the data structure. The time complexity of binary search is O(log n) in the best and average cases, making it more efficient than linear search for large datasets. In Python, a simple implementation of binary search can be written as follows:
+          <t xml:space="preserve"> Binary search is a searching algorithm used on sorted data structures, such as sorted arrays or lists. Instead of checking elements one-by-one starting from the beginning (linear search), it compares the target value with the middle element in each half of the array and recursively repeats this process on the sub-array where the target might be found. This makes binary search significantly faster than linear search, as its time complexity is O(log n) in the best and average cases (direct match or when the target is not found), compared to O(n) for linear search.
+Here's an example of how it can be implemented in Python:
 ```python
-def binarysearcharr(target, arr, left, right):
-    if left &gt; right:
-        return 1 # Target not found in the array
-    mid = (left + right) // 2
-    if arr[mid] == target:
-        return mid
-    elif arr[mid] &lt; target:
-        return binarysearcharr(target, arr, mid+1, right)
-    else:
-        return binarysearcharr(target, arr, left, mid-1)
+def binary_search(arr, target):
+    left = 0
+    right = len(arr) - 1
+    while left &lt;= right:
+        mid = (left + right) // 2
+        if arr[mid] == target:
+            return mid
+        elif arr[mid] &lt; target:
+            left = mid + 1
+        else:
+            right = mid - 1
+    return None # or some value indicating the target was not found
 ```</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>70.04897975921631</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I7" t="n">
-        <v>300</v>
+        <v>0.6171875</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -743,7 +778,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>llama2</t>
+          <t>mistral:latest</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -752,41 +787,30 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>52.29181361198425</v>
+        <v>14.42314314842224</v>
       </c>
       <c r="F8" t="n">
-        <v>2.54296875</v>
+        <v>46.375</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To answer this query, let's first understand that the given context discusses B-Trees, not AVL Trees. So, we need to apply the concepts of an AVL Tree to the question.
-In AVL Trees, when a node is inserted or deleted, the height difference between the subtrees at each node is maintained by performing rotations if necessary. In this case, when inserting 23 into a balanced AVL tree with elements 30, 25, 35, and 20 (with 30 as the root), we would first insert it under the right child of the root (as it is greater than 25).
-Let's assume that the right child has a single node with value 35. Now the tree looks like this:
-```
-     30
-    /   \
-   25    35
-         \
-         30
-          /
-         25
-       (new node with value 23)
-```
-In this case, the height difference between the left and right subtrees at the root increases by 1 (as the height of the left subtree becomes 2, while the height of the right subtree remains 1). This violates the balance condition in AVL Trees.
-So, the imbalance case created when inserting 23 is a single-height violation at the root node. To restore balance, rotations might be required, such as left rotation at the root or double rotation involving the root and its successor (right child).</t>
+          <t xml:space="preserve"> I don't know. The provided context discusses B-Tree operations, not AVL Tree operations. To answer this question accurately, I would need information about an AVL Tree and its specific balancing rules to determine the imbalance case when inserting 23 into a tree with elements 30, 25, 35, 20 (with 30 being at the root).</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>70.04897975921631</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I8" t="n">
-        <v>300</v>
+        <v>0.6171875</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -796,7 +820,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>llama2</t>
+          <t>mistral:latest</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -805,31 +829,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.7479305267334</v>
+        <v>25.5317850112915</v>
       </c>
       <c r="F9" t="n">
-        <v>46.015625</v>
+        <v>-44.515625</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, Durability) compliant transactions are as follows:
-1. Atomicity: A transaction is treated as an atomic unit, meaning it is either fully executed or no parts of it are executed.
+1. Atomicity: A transaction is treated as an atomic unit, meaning it is either fully executed or not at all. No parts of the transaction are executed if any part fails.
 2. Consistency: A transaction takes a database from one consistent state to another consistent state, ensuring that all data meets integrity constraints.
-3. Isolation: Each transaction is isolated from other transactions, ensuring the concurrent execution of transactions does not interfere with each other.
-4. Durability: Once a transaction is completed and committed successfully, its changes are permanent, even in the event of a system failure. The committed transactions are preserved.</t>
+3. Isolation: Each transaction is isolated from other transactions, ensuring that the execution of one transaction does not interfere with or affect the execution of others.
+4. Durability: Once a transaction is completed and committed successfully, its changes are permanent, even in the event of a system failure. Committed transactions are preserved.</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>70.04897975921631</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I9" t="n">
-        <v>300</v>
+        <v>0.6171875</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -839,7 +866,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>llama2</t>
+          <t>mistral:latest</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -848,37 +875,30 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38.43673753738403</v>
+        <v>8.411706209182739</v>
       </c>
       <c r="F10" t="n">
-        <v>47.0703125</v>
+        <v>45.4609375</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Based on the provided context, it seems that the MongoDB queries are written in an aggregation format. However, for a simple filter like returning the titles of all movies released between 2010 and 2015 from the suspense genre, we can use a find operation with a filter condition. Here's an example:
-```
-dbmovies.find({
-    year: {
-        $gte: 2010,
-        $lte: 2015
-    },
-    genres: "Suspense"
-}).project({ title: 1, _id: 0 })
-```
-This query will return the titles of all movies from the 'movies' collection that were released between 2010 and 2015, have the 'genre' as 'Suspense'. The `_id: 0` in the project stage is used to exclude the ObjectId from the returned documents. If you want to include the _id, just remove it or replace with `_id: 1`.</t>
+          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 } and genres: "Suspense" project title 1 _id 0</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>70.04897975921631</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I10" t="n">
-        <v>300</v>
+        <v>0.6171875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -888,7 +908,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>llama2</t>
+          <t>mistral:latest</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -897,21 +917,24 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.558026790618896</v>
+        <v>18.50748062133789</v>
       </c>
       <c r="F11" t="n">
-        <v>-44.48046875</v>
+        <v>45.40625</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I don't know. The context provided does not mention when SQL was originally released.</t>
+          <t xml:space="preserve"> I don't have specific information about when SQL was originally released from the provided context. However, SQL (Structured Query Language) is a standard language for managing and manipulating relational databases, which suggests that it was likely developed around the same time as relational databases in the 1970s. One of the earliest examples of a relational database management system (RDBMS) is Oracle, which was developed by Edgar F. Codd in 1970, and SQL was initially implemented for it in 1974.</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>70.04897975921631</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I11" t="n">
-        <v>300</v>
+        <v>0.6171875</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -922,12 +945,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-mpnet-base-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mistral:latest</t>
+          <t>llama2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -936,20 +959,23 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12.27795076370239</v>
+        <v>25.84505391120911</v>
       </c>
       <c r="F12" t="n">
-        <v>46.09375</v>
+        <v>55.109375</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Binary search is a search algorithm used on sorted data that works by repeatedly dividing in half the portion of the data that could contain the target value, until you find the target or exhaust the search space. It has a time complexity of O(log n), making it more efficient than linear search for large datasets. The implementation provided in the context is in Python.</t>
+          <t xml:space="preserve"> Binary search is a method used to find an item from a sorted array or list of items in logarithmic time complexity, O(log n). The basic idea behind binary search is to repeatedly divide the search interval in half. If the value of the middle element matches the target, it is returned as the index where the target appears. Otherwise, if the middle value is greater than the target, the search continues on the lower half of the array, and if it is less than the target, the search continues on the upper half. This process is repeated until the target is found or the search interval is empty. In Python, this can be implemented as shown in the provided text from the 4300 notes for chatbot angelina.pdf (page 0, chunk 4).</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>105.1465353965759</v>
+        <v>44.00953984260559</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>300</v>
       </c>
     </row>
@@ -961,12 +987,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-mpnet-base-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>mistral:latest</t>
+          <t>llama2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -975,22 +1001,23 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.85639953613281</v>
+        <v>8.038254976272583</v>
       </c>
       <c r="F13" t="n">
-        <v>0.16015625</v>
+        <v>48.76171875</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To answer your query, I would need the specific rules for AVL trees to determine the imbalance case when inserting 23 into an AVL tree with elements 30, 25, 35, and 20. However, since the provided context is about B-trees, it does not contain information on AVL trees.
-The process of inserting a value into an AVL tree involves maintaining the balance property, which ensures that the height difference between the left and right subtrees at any node never exceeds one. When this condition is violated during insertion, rotation operations are performed to restore the balance.
-I recommend looking for information on AVL trees or consulting a resource that explains their properties and insertion process in detail to find out what imbalance case is created when inserting 23 into the specified AVL tree. If you need more help with this, let me know!</t>
+          <t xml:space="preserve"> I don't know. The provided context does not describe an AVL Tree but a B+ Tree. To answer this question accurately, we would need information about an AVL Tree, specifically its balancing rules for insertion.</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>105.1465353965759</v>
+        <v>44.00953984260559</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1002,12 +1029,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-mpnet-base-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mistral:latest</t>
+          <t>llama2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1016,24 +1043,27 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.96156191825867</v>
+        <v>27.68987941741943</v>
       </c>
       <c r="F14" t="n">
-        <v>45.3984375</v>
+        <v>2.8515625</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, and Durability) compliant transactions are as follows:
-1. Atomicity: An atomic transaction is treated as an indivisible unit of work. It either fully succeeds or fails as a whole, meaning no parts of it are executed if the entire sequence fails.
-2. Consistency: A transaction takes the database from one consistent state to another consistent state. In other words, all data should meet integrity constraints after a successful transaction.
-3. Isolation: Each transaction is isolated from others, ensuring that concurrent execution of transactions does not interfere with each other.
-4. Durability: Once a transaction has been committed successfully, its changes become permanent and remain so, even in the event of a system failure.</t>
+          <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, Durability) compliant transactions are as follows:
+- Atomicity: A transaction is treated as an atomic unit. It is either fully executed or not at all. This helps ensure that all operations within the transaction are completed successfully and any errors during the transaction will cause it to be rolled back to its initial state.
+- Consistency: A transaction takes a database from one consistent state to another consistent state, ensuring that all data meets integrity constraints.
+- Isolation: Each transaction is isolated from other transactions, preventing data inconsistencies caused by concurrent access and modifications to the database.
+- Durability: Once a transaction has been completed and committed successfully, its changes are permanent and will be preserved even in the event of a system failure.</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>105.1465353965759</v>
+        <v>44.00953984260559</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1045,12 +1075,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-mpnet-base-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>mistral:latest</t>
+          <t>llama2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1059,30 +1089,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53.50985765457153</v>
+        <v>40.59564423561096</v>
       </c>
       <c r="F15" t="n">
-        <v>46.5625</v>
+        <v>45.734375</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Based on the provided context, it seems that you're working with a MongoDB dataset where the genres are stored in a separate collection called `moviegenres`. Here is how I would construct the query for your need.
-Assuming you have two collections - `movies` and `moviegenres`, the MongoDB query would look like this:
-```mongodb
-db.movies.aggregate([
-    { $match: { year: { $gte: 2010, $lt: 2016 } } }, // Match movies released between 2010 and 2015
-    { $lookup: { from: "moviegenres", localField: "_id", foreignField: "movies_id", as: "genres" } }, // Join the moviegenres collection based on the movie's _id
-    { $unwind: "$genres" }, // Flatten the genres array for each matched movie
-    { $match: { "genres.genre": "Suspense" } } // Filter by genre
-])
+          <t xml:space="preserve"> Based on the context provided, to write a MongoDB query for the required task, we need to construct a query similar to the ones given in the context but adjusted to fit our needs. Here's a possible solution:
+Assuming that the movies collection has fields `year`, `genres` and `title`, the MongoDB Query would be as follows:
 ```
-This query first filters movies that were released between 2010 and 2015, then it joins the `moviegenres` collection based on the movie's _id, unwinds the genres array, and finally filters by genre to only return suspense movies.</t>
+dbmovies.find(
+  {
+    $and: [
+      { year: { $gte: 2010, $lte: 2015 } },
+      { genres: "Suspense" }
+    ]
+  }
+).project({ _id: 0, title: 1} )
+```
+This query selects the `title` field from the documents in the movies collection that have a `year` between 2010 and 2015 and a genre of "Suspense". The `_id` is omitted with the `.project()` method, which means it won't be returned in the result.</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>105.1465353965759</v>
+        <v>44.00953984260559</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>300</v>
       </c>
     </row>
@@ -1094,12 +1129,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-mpnet-base-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mistral:latest</t>
+          <t>llama2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1108,32 +1143,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.648612499237061</v>
+        <v>10.28941774368286</v>
       </c>
       <c r="F16" t="n">
-        <v>-45.38671875</v>
+        <v>45.60546875</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I don't know. The provided context does not mention when SQL was originally released.</t>
+          <t xml:space="preserve"> I don't know. The context provided does not mention when SQL (Structured Query Language) was originally released. SQL is a language used for managing and manipulating databases, but the focus of the context appears to be on NoSQL databases and specific database systems like MongoDB.</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>105.1465353965759</v>
+        <v>44.00953984260559</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>milvus</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-mpnet-base-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1147,14 +1185,14 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>41.30848145484924</v>
+        <v>34.65451979637146</v>
       </c>
       <c r="F17" t="n">
-        <v>46.1875</v>
+        <v>-42.84765625</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Binary search is a search algorithm used on sorted data types (like arrays or lists), which repeatedly divides the search interval in half, by comparing the target value to the middle element of the array/list. If the target matches the middle element, then the index of the target has been found. Otherwise, the process repeats recursively on either the lower or upper subarray around the middle element, based on whether the target is less than or greater than the middle element. The time complexity for binary search is O(log n), making it more efficient than linear search when dealing with large datasets. Here's an example implementation of binary search in Python:
+          <t xml:space="preserve"> Binary Search is a search algorithm used on sorted data structures, such as arrays or lists. It works by repeatedly dividing the search interval in half until the target value is found or the interval becomes empty. The time complexity of binary search is O(log n), which makes it much more efficient than linear search (O(n)) for large datasets. Here's a simple implementation in Python:
 ```python
 def binarysearcharr(target, arr):
     left = 0
@@ -1167,26 +1205,29 @@
             left = mid + 1
         else:
             right = mid - 1
-    return -1 # Target not found in the array/list
+    return -1 # If the target is not found, it returns -1
 ```</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>105.1465353965759</v>
+        <v>168.8814976215363</v>
       </c>
       <c r="I17" t="n">
+        <v>-2.0859375</v>
+      </c>
+      <c r="J17" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>milvus</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-mpnet-base-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1200,32 +1241,51 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12.85077166557312</v>
+        <v>115.949059009552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.33984375</v>
+        <v>45.45703125</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I don't know. The context provided describes B+ Tree operations, not AVL Trees. In an AVL Tree, the balance factor after each operation would be taken into account to determine if any rotation or rebalancing is needed. To answer this question accurately, we need a walkthrough of inserting 23 into an AVL Tree with the given elements.</t>
+          <t xml:space="preserve"> To answer your query, let's first understand that an AVL tree maintains balance by ensuring the difference between heights of left and right subtrees at each node is between -1 and 1. The context provided doesn't explain the AVL tree rules, so I'll briefly outline them:
+1. When inserting a new node, check the balance factor (difference in height) of the updated nodes up to the root.
+2. If a subtree becomes unbalanced, perform one or more rotations to rebalance it.
+3. Basic rotation types: left rotation for right heavy subtrees and right rotation for left heavy subtrees.
+Now, let's add 23 to our AVL tree with elements 30, 25, 35, 20 (root is at 30).
+1. Insert 23 into the correct leaf node (assuming the tree is a balanced Binary Search Tree before adding 23):
+   - Since 23 &lt; 30 (the root), we start by searching in the left subtree of 30.
+   - If the left subtree doesn't exist, create it and insert 23 as the root of this new subtree.
+   - Continue the search process until we find the correct leaf node to insert 23 (in this case, the leftmost leaf in the left subtree of 30).
+2. Now that we have inserted 23, check for balance. Assuming the tree is a Binary Search Tree, and not an AVL Tree yet:
+   - After adding 23, we have a full node (with 4 elements) in the leftmost leaf node of the root's left subtree. This can cause imbalance as it violates the rule that each non-leaf node must have at most two children and 2 keys.
+3. To fix this imbalance in the AVL tree, we perform a split operation:
+   - Split the full leaf node into two nodes (a new leaf node and an internal node with one key) by moving the middle element to the new internal node. This will create a new leaf node with less than 4 elements.
+   - The middle element is the smallest value from the new leaf node, which should be propagated upwards in the tree to maintain the AVL property.
+In this case, since we're starting at the root's left subtree and moving down, we will split the leaf nodes and create a new internal node when needed to balance the AVL tree after inserting 23. The resulting imbalance case would be a violation of the height difference rule due to an unbalanced subtree (either right or left heavy).
+However, to determine the exact imbalance case created when inserting 23, we need more information about the existing AVL tree structure before the insertion. For example, if the root's left subtree was empty before inserting 23, the resulting imbalance would be different than if it already contained elements.
+I hope this helps clarify the concept! If you have any further questions or need more explanations, feel free to ask!</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>105.1465353965759</v>
+        <v>168.8814976215363</v>
       </c>
       <c r="I18" t="n">
+        <v>-2.0859375</v>
+      </c>
+      <c r="J18" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>milvus</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-mpnet-base-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1239,36 +1299,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.69015789031982</v>
+        <v>22.04262399673462</v>
       </c>
       <c r="F19" t="n">
-        <v>45.97265625</v>
+        <v>46.29296875</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, and Durability) compliant transactions are as follows:
-1. Atomicity: A transaction is treated as an atomic unit. It either fully executes or no parts of it are executed.
-2. Consistency: A transaction takes a database from one consistent state to another consistent state. In this context, consistency means all data meets integrity constraints.
-3. Isolation: Each transaction is isolated from other transactions concurrently being executed. This ensures that the outcome of each transaction is not affected by other concurrent transactions.
-4. Durability: Once a transaction is completed and committed successfully, its changes are permanent, even in the event of a system failure. Committed transactions are preserved for future use.</t>
+          <t xml:space="preserve"> ACID compliant transactions have four key components: Atomicity, Consistency, Isolation, and Durability.
+* Atomicity ensures that a transaction is treated as an atomic unit; it is either fully executed or no parts of it are executed.
+* Consistency requires that a transaction takes the database from one consistent state to another consistent state, where all data meets integrity constraints.
+* Isolation ensures that concurrent execution of transactions leaves the database in the same state as if the transactions were executed sequentially.
+* Durability guarantees that once a transaction is completed and committed successfully, its changes are permanent and will be retained even in the event of a system failure.</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>105.1465353965759</v>
+        <v>168.8814976215363</v>
       </c>
       <c r="I19" t="n">
+        <v>-2.0859375</v>
+      </c>
+      <c r="J19" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>milvus</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-mpnet-base-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1282,32 +1345,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.404672145843506</v>
+        <v>8.508474349975586</v>
       </c>
       <c r="F20" t="n">
-        <v>46.34765625</v>
+        <v>-45.46875</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 } genres: "Suspense" name: 1 _id: 0</t>
+          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 } genres: Suspense name 1 id 0</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>105.1465353965759</v>
+        <v>168.8814976215363</v>
       </c>
       <c r="I20" t="n">
+        <v>-2.0859375</v>
+      </c>
+      <c r="J20" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>milvus</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-mpnet-base-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1321,37 +1387,40 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.27165699005127</v>
+        <v>11.24848413467407</v>
       </c>
       <c r="F21" t="n">
-        <v>-44.453125</v>
+        <v>46.3828125</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I don't know. The context provided discusses the history and development of NoSQL databases, not SQL itself. SQL (Structured Query Language) was first introduced in the early 1970s as part of the development of the SQL relational database management system (RDBMS) by IBM and was later standardized by ANSI in 1986 and ISO in 1987.</t>
+          <t xml:space="preserve"> I don't know the exact year when SQL was originally released as the provided context does not mention any specific year related to SQL. SQL (Structured Query Language) is a standard programming language used in relational database management systems, and it has been around for several decades but without more specific details, it's hard to pinpoint an exact release year.</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>105.1465353965759</v>
+        <v>168.8814976215363</v>
       </c>
       <c r="I21" t="n">
+        <v>-2.0859375</v>
+      </c>
+      <c r="J21" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nomic-embed-text</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>mistral:latest</t>
+          <t>llama2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1360,37 +1429,40 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39.86154723167419</v>
+        <v>26.77084159851074</v>
       </c>
       <c r="F22" t="n">
-        <v>45.01171875</v>
+        <v>45.16796875</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Binary search is a method used to find an item from a sorted list or array of values in logarithmic time complexity (O(log n)). Instead of checking each element sequentially like linear search, binary search narrows the possible location by repeatedly dividing the remaining portion of the data set in half. It does this by first comparing the target value with the middle element of the data set. If the target matches the middle element, its position is returned. If not, based on whether the target is less than or greater than the middle element, either the left or right side of the data set is recursively searched. This process continues until the target is found or the remaining portion of the data set to search becomes empty. The binary search implementation provided in the context can be used to find a target value within a sorted array in Python.</t>
+          <t xml:space="preserve"> Binary search is a search algorithm used on sorted data. It works by repeatedly dividing the search interval in half, finding the middle value, and comparing it to the target value. If they are equal, the target is found. If the target is less than the middle value, the search continues on the lower half of the array; otherwise, it continues on the upper half. This process continues until either the target is found or the search interval is empty, indicating that the target was not present in the data. The time complexity for binary search is O(log n) in the best and average cases, but can grow to O(n) if the data becomes unsorted during a search. In Python, implementation of binary search involves using recursion or iteration to traverse the array and find the target value.</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>17.13429164886475</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I22" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J22" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nomic-embed-text</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>mistral:latest</t>
+          <t>llama2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1399,37 +1471,40 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.707672834396362</v>
+        <v>9.346574544906616</v>
       </c>
       <c r="F23" t="n">
-        <v>46.8359375</v>
+        <v>-44.28515625</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I don't know. The provided context is about B-trees, not AVL trees. To answer this question accurately, we would need information or examples about AVL tree insertions and their balance factors.</t>
+          <t xml:space="preserve"> I don't know. The provided context doesn't describe the rules for an AVL tree. To answer this question correctly, we would need to refer to the specific rules and properties of an AVL tree, which are different from those of a B-tree.</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>17.13429164886475</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I23" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J23" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>chroma</t>
+          <t>redis</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nomic-embed-text</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>mistral:latest</t>
+          <t>llama2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1438,151 +1513,1506 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.46352458000183</v>
+        <v>22.83486080169678</v>
       </c>
       <c r="F24" t="n">
-        <v>-44.50390625</v>
+        <v>45.43359375</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, and Durability) compliant transactions are as follows:
-- Atomicity: A transaction is treated as an atomic unit, meaning it is either fully executed or none of its parts are. If a failure occurs during the execution, the entire transaction is rolled back to its previous state.
-- Consistency: A transaction takes a database from one consistent state to another. In other words, all data meets integrity constraints within the transaction.
-- Isolation: Each transaction executes independently of others to ensure that it does not interfere with or conflict with any other transactions.
-- Durability: Once a transaction is completed and committed successfully, its changes are permanent and remain even in the event of a system failure.</t>
+          <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, Durability) compliant transactions are:
+1. Atomicity: A transaction is treated as an atomic unit, meaning it is either fully executed or none of its parts are executed.
+2. Consistency: A transaction takes a database from one consistent state to another consistent state, ensuring all data meets integrity constraints.
+3. Isolation: Each transaction executes in isolation from others, preventing conflicts and ensuring reliable results even when multiple transactions are being executed concurrently.
+4. Durability: Once a transaction is completed and committed successfully, its changes are permanent, remaining even in the event of a system failure.</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>17.13429164886475</v>
+        <v>68.03437852859497</v>
       </c>
       <c r="I24" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J24" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>14.3293776512146</v>
+      </c>
+      <c r="F25" t="n">
+        <v>45.53125</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 } and genres: "Suspense"
+This query will return all movies from the 'movies' data set that were released between 2010 and 2015 and have the genre of 'Suspense'.</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>68.03437852859497</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J25" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>11.49276638031006</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-45.55859375</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't have information about when SQL was originally released in the provided context. SQL (Structured Query Language) was developed in the 1970s, specifically by IBM for its relational database management system SQL/DS. Later, it became a standard language for relational databases and was adopted widely across different systems.</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>68.03437852859497</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J26" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>chroma</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>nomic-embed-text</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>mistral:latest</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>42.64301705360413</v>
+      </c>
+      <c r="F27" t="n">
+        <v>47.26953125</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary search is a search algorithm that works on sorted data structures such as arrays or lists. It uses a divide-and-conquer approach to find the target value, by repeatedly dividing the data set in half, finding the middle element, and comparing it with the target. If the target matches the middle element, its location (index) is returned. If not, depending on whether the target is less than or greater than the middle element, either the left or right half of the data set is recursively searched. The time complexity for a best case scenario (direct match) is O(1), and in the worst case, it's O(log n). In Python, you can implement binary search using the following code:
+```python
+def binarysearcharr(target, left, right, arr):
+    if left &lt;= right:
+        mid = (left + right) // 2
+        if arr[mid] == target:
+            return mid
+        elif arr[mid] &lt; target:
+            return binarysearcharr(target, mid+1, right, arr)
+        else:
+            return binarysearcharr(target, left, mid-1, arr)
+    else:
+        return -1
+```</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>81.19103360176086</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>42.36402678489685</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.96875</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To answer your query, I would need the specific rules for an AVL tree, as the context provided describes a B+Tree. However, based on general knowledge of AVL trees:
+When inserting a new key (in this case, 23), in an AVL tree, the tree maintains height balance by adjusting the tree structure during rotations to ensure that the heights of the two child subtrees of any node differ by at most one.
+The imbalance cases in an AVL tree are as follows:
+1. Single Rotation (LL or RR) when insertion causes two child nodes to have the same height.
+2. Double Rotation (LL-RR or RR-LL) when the insertion causes a two-child subtree to be one level taller than its sibling subtree, which is already one level taller than the root.
+3. Case 4 Triple Rotation (LRL or RRl) when the insertion causes an imbalance of three levels in the tree.
+Since we don't have specific rules for the AVL tree you're using, I cannot definitively say which imbalance case will be created when inserting 23 into this particular AVL tree. You would need to apply the balance factor updates and check the heights of nodes to determine if an imbalance is introduced.</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>81.19103360176086</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>19.61808633804321</v>
+      </c>
+      <c r="F29" t="n">
+        <v>46.05859375</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The four components of ACID compliant transactions are Atomicity, Consistency, Isolation, and Durability (ACID).
+   - Atomicity ensures that a transaction is treated as an atomic unit, either fully executed or not at all.
+   - Consistency means a transaction takes a database from one consistent state to another consistent state where all data meets integrity constraints.
+   - Isolation guarantees that transactions are executed in isolation from each other, preventing interference between concurrent transactions.
+   - Durability ensures that once a transaction is completed and committed successfully, its changes are permanent, even in the event of a system failure.</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>81.19103360176086</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>39.25194239616394</v>
-      </c>
-      <c r="F25" t="n">
-        <v>45.41796875</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> In the context provided, there doesn't seem to be an exact example for your query. However, considering the pattern in the examples, you can construct a MongoDB query as follows:
+      <c r="E30" t="n">
+        <v>25.7045578956604</v>
+      </c>
+      <c r="F30" t="n">
+        <v>45.36328125</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Based on the provided context, it seems there is no exact match for the query. However, referring to the examples, a MongoDB query similar to your request might look like this:
+```mongodb
+dbmoviesfind year: { $gte: 2010, $lte: 2015 } and genres: "Suspense"
+```
+This query will return all the movies that were released between 2010 and 2015, and belong to the suspense genre. The '$gte' operator is used for greater than or equal to, and '$lte' for less than or equal to. The 'and' condition combines the two filters together.</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>81.19103360176086</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>16.09939026832581</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-44.51171875</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know the exact date when SQL was originally released as the provided context doesn't contain that information. However, it is important to note that SQL (Structured Query Language) was developed in the 1970s, specifically by Donald D. Chamberlin and Raymond F. Boyce at IBM. It was first used with the System R research project and later adopted as a standard for relational databases in the 1980s.</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>81.19103360176086</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>22.81362175941467</v>
+      </c>
+      <c r="F32" t="n">
+        <v>331.75390625</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary search is an algorithm used for finding a specific value (called the target) within a sorted dataset in O(log n) time complexity, where n is the number of items in the dataset. It works by repeatedly dividing the search interval in half until it finds the target or narrows down the search to a single item. The basic idea behind binary search is to eliminate half of the remaining items with each comparison, which makes it more efficient than linear search for large datasets that are already sorted. However, if the dataset is not sorted, you would need to sort it first, and this can be expensive in terms of time and space complexity.</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>196.4532153606415</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1.6328125</v>
+      </c>
+      <c r="J32" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>100.4394125938416</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.21484375</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To answer this query, let's first understand that an AVL tree is a self-balancing binary search tree, where the heights of the two child subtrees of any node differ by at most one. In your provided context, we have B Trees (not AVL trees), which are also self-balancing but not as strictly balanced as AVL trees.
+Now, let's insert 23 into an empty AVL tree with the root 30 and leaves 25, 35, and 20. We will follow the standard procedure of inserting a new node in a BST, but since we don't know the balancing factor or rotation rules specific to AVL trees, we can't predict the exact imbalance case caused by inserting 23. However, based on the general rule for AVL trees, the tree will become unbalanced because during the process of insertion, there might be a situation where two child nodes have a height difference of more than one, which is considered an imbalance in an AVL tree.
+After inserting 23, you can follow these steps to see if any specific imbalance case arises:
+1. Start at the root (30). Since it's not full (less than 4 children), insert 23 as its left child.
+2. The inserted node (23) is now full (has 3 children). Split this node, creating a new node to its right with the smallest value among its children (the minimum between 25 and 20 in this case). We can assume that the split values are 25 for the left child of the original node (23) and 20 for the right child.
+3. Now, let's check the balance factor between the two children of the original node (23). If their heights differ by more than one, we have an imbalance case in the tree. In this example:
+   - The height of the left child is 1 (containing 25)
+   - The height of the right child is also 1 (containing 20 and the new node being created with the smallest value).
+Since their heights are equal, there's no imbalance at this level. Now let's move up to the parent (the original root, 30). Its left subtree has a height difference of 1 between its children, so it violates the AVL tree property. To restore balance, we need to perform rotations or rebalancing operations, but those depend on specific rules for AVL trees and aren't provided in the given context.
+In conclusion, after inserting 23 into the given AVL tree, an imbalance case will arise at the root (30), which will require rotations or rebalancing to maintain the property of the AVL tree.</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>196.4532153606415</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-1.6328125</v>
+      </c>
+      <c r="J33" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>23.27994632720947</v>
+      </c>
+      <c r="F34" t="n">
+        <v>331.12109375</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The four components of ACID compliant transactions are Atomicity, Consistency, Isolation, and Durability.
+Atomicity ensures that a transaction is treated as an atomic unit - it is either fully executed or not at all.
+Consistency guarantees that a transaction takes the database from one consistent state to another. A consistent state means all data adheres to integrity constraints.
+Isolation prevents interference between transactions by locking resources until a transaction is complete, ensuring each transaction operates independently and consistently as if it were the only transaction being executed.
+Durability ensures that once a transaction is committed, its changes are permanent and can be recovered in case of system failure.</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>196.4532153606415</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1.6328125</v>
+      </c>
+      <c r="J34" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>9.179150104522705</v>
+      </c>
+      <c r="F35" t="n">
+        <v>331.77734375</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 } genres: Suspense
+Assuming a separate moviegenres table storing genres per movie.</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>196.4532153606415</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-1.6328125</v>
+      </c>
+      <c r="J35" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>11.07412505149841</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.14453125</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SQL (Structured Query Language) was not originally mentioned in the provided context, but it's important to note that SQL was developed in the early 1970s as part of the SQL-based relational database management system Oracle, and it is widely used for managing structured data in relational databases.</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>196.4532153606415</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-1.6328125</v>
+      </c>
+      <c r="J36" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>25.13443326950073</v>
+      </c>
+      <c r="F37" t="n">
+        <v>332.34765625</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary search is a search algorithm used on a sorted data set, returning the index of the target value within the data set or indicating that the target is not present in the data set. It works by repeatedly dividing the search interval in half. If the value of the searched-for item is less than the item in the middle of the interval, we eliminate the upper half; otherwise, we eliminate the lower half. This process continues until we find the desired item or exhaust the search space. The best case time complexity for binary search is O(log n), which means it's more efficient compared to linear search, especially on large datasets. However, it requires that the data set be sorted before searching can begin.</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>97.82233476638794</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>48.42774820327759</v>
+      </c>
+      <c r="F38" t="n">
+        <v>333.18359375</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The provided context discusses B+Tree operations, not specifically AVL Trees. To answer your query, I'll provide a general explanation of the potential impact of adding 23 to an AVL Tree with the elements 30, 25, 35, and 20 (with 30 at the root).
+In AVL Trees, balance is maintained by adjusting the height of nodes. After inserting a new value, the tree may become unbalanced if the difference in heights between the left and right subtrees exceeds 1 for a node that is not the root or exceeds 2 for the root itself.
+When adding 23 to this AVL Tree:
+1. Insert 23 as the right child of the root (30). Now the tree looks like:
+   - 30
+   / \
+  25  23
+      / \
+     20   35
+2. The height difference between left and right subtrees at the root is 1, so the tree is balanced for now.
+However, if you perform additional insertions or deletions that further increase this height difference, the tree could become unbalanced in a way that violates the AVL Tree balance property. It's essential to keep adjusting the tree using rotations and re-balancing operations to maintain the desired balance.</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>97.82233476638794</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>35.84208822250366</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, and Durability) compliant transactions are as follows:
+1. Atomicity: A transaction is treated as an atomic unit; it is fully executed or no parts of it are executed. In other words, the outcome of a single transaction will be indivisible in nature.
+2. Consistency: A transaction takes the database from one consistent state to another consistent state. This means that all data meets integrity constraints and adheres to the rules defined by the system.
+3. Isolation: Each transaction is isolated from other transactions, ensuring that concurrent execution of transactions does not create interference between them. This is often achieved through locking resources until a transaction is complete.
+4. Durability: Once a transaction has been committed, its changes are permanent and remain even in the event of a system failure. In simpler terms, once a transaction is successfully completed, its effects are persisted across all relevant storage systems to ensure long-term permanence.</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>97.82233476638794</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>15.67022085189819</v>
+      </c>
+      <c r="F40" t="n">
+        <v>332.2421875</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 } and genres: "Suspense"
+This MongoDB query will return the titles of all movies released between 2010 and 2015 from the suspense genre.</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>97.82233476638794</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4.107161521911621</v>
+      </c>
+      <c r="F41" t="n">
+        <v>330.734375</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. The provided context does not contain information about when SQL was originally released.</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>97.82233476638794</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>36.93317270278931</v>
+      </c>
+      <c r="F42" t="n">
+        <v>47.1875</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary search is a searching algorithm that works on sorted data, specifically arrays or lists. It divides the search interval in half at each step until it finds the target value or determines that it does not exist within the array. The time complexity of best case (direct match) is O(1), and the worst case (searching through half of the list at each step) is O(log n). Here's an example implementation in Python:
+```python
+def binary_search(arr, target):
+    left = 0
+    right = len(arr) - 1
+    while left &lt;= right:
+        mid = (left + right) // 2
+        if arr[mid] == target:
+            return mid
+        elif arr[mid] &lt; target:
+            left = mid + 1
+        else:
+            right = mid - 1
+    return None  # Target value not found
+```</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>81.19103360176086</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>12.24764585494995</v>
+      </c>
+      <c r="F43" t="n">
+        <v>46.90234375</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. The context provided describes B-Tree operations, not AVL Tree operations. To answer this question, I would need information about an AVL tree specifically, such as a description of its rotation rules to determine the imbalance case created when inserting 23 into the given tree structure.</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>81.19103360176086</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>32.31891560554504</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-45.375</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, and Durability) compliant transactions are as follows:
+1. Atomicity: A transaction is treated as an atomic unit; it is either fully executed or no parts of it are executed.
+2. Consistency: A transaction takes a database from one consistent state to another consistent state, ensuring that all data meets integrity constraints.
+3. Isolation: Each transaction executes independently and without interference from other transactions, ensuring data integrity and correctness.
+4. Durability: Once a transaction is completed and committed successfully, its changes are permanent, even in the event of a system failure or crash.
+The ACID properties help ensure reliable and error-free transaction processing, with simplified error handling, concurrency control, and reliable data storage. For more information on transactions, you can refer to Kleppmann's book, Chapter 7.</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>81.19103360176086</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>8.730295419692993</v>
+      </c>
+      <c r="F45" t="n">
+        <v>46.35546875</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 } genres: "Suspense" project id 0 title 1</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>81.19103360176086</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3.678313255310059</v>
+      </c>
+      <c r="F46" t="n">
+        <v>45.4296875</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. The context provided does not mention when SQL was originally released.</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>81.19103360176086</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>28.22365260124207</v>
+      </c>
+      <c r="F47" t="n">
+        <v>240.9375</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary Search is a searching algorithm that works on sorted data. It compares the target value to the middle element of the array (or list), then repeatedly compares the target value to the half in which it should be, if it's not found or equal to the element in the first comparison, and repeats this process with the smaller (right) or larger (left) half until it finds the target value or the search range is empty. If the search range becomes empty, the target value is not present in the array. The time complexity of binary search is O(log n), making it more efficient than linear search especially for large datasets. However, it requires the data to be sorted first and has a higher overhead for insertions and deletions compared to unsorted lists like Linked Lists.</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>196.4532153606415</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.6328125</v>
+      </c>
+      <c r="J47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>72.62450957298279</v>
+      </c>
+      <c r="F48" t="n">
+        <v>332.96484375</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In an AVL tree, the insertion of a new node can cause an imbalance in the height of the subtrees. Since we don't have enough context to know the exact structure of the given AVL tree with elements 30, 25, 35, and 20, I'll explain the possible scenarios when adding 23.
+1. Left-Left case: If the new node (23) is inserted as a left child of an already existing left child node, both the subtrees at that node will become taller by one level. This results in a left-left imbalance, which can be corrected by rotations and possibly rebalancing the tree.
+2. Right-Right case: Similarly, if the new node (23) is inserted as a right child of an already existing right child node, both the subtrees at that node will become taller by one level. This results in a right-right imbalance, which can be corrected by rotations and possibly rebalancing the tree.
+3. Left-Heavy case: If the new node (23) is inserted on the left side of the tree but the height difference between the left and right subtrees remains within the balance factor bounds, there will still be a left-heavy skew in the tree, which might not cause an imbalance but could lead to performance degradation over time.
+4. Right-Heavy case: The opposite of the Left-Heavy case, where the new node (23) is inserted on the right side of the tree and causes a right-heavy skew in the tree. Similarly, this might not cause an imbalance but could lead to performance degradation over time.
+To determine the exact imbalance case for this specific AVL tree, you would need more information about the positions of the existing nodes (30, 25, 35, and 20) within the tree and how the new node (23) is inserted relative to those positions.</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>196.4532153606415</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-1.6328125</v>
+      </c>
+      <c r="J48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>24.76938581466675</v>
+      </c>
+      <c r="F49" t="n">
+        <v>331.1875</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACID compliant transactions have four components: Atomicity, Consistency, Isolation, and Durability.
+* Atomicity ensures that a transaction is treated as an atomic unit, meaning it is either fully executed or not at all.
+* Consistency requires that a transaction takes the database from one consistent state to another consistent state, ensuring all data meets integrity constraints.
+* Isolation prevents concurrent transactions from interfering with each other, ensuring each transaction is isolated from other transactions. This is often achieved by locking resources until a transaction is complete.
+* Durability guarantees that once a transaction has been committed successfully, its changes are permanent and will persist even in the event of a system failure.</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>196.4532153606415</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-1.6328125</v>
+      </c>
+      <c r="J49" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>15.97728443145752</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.30859375</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 } genres: "Suspense"
+Assuming a separate movies collection where each document has fields `year` and `genres`. This query will return all movie titles that were released between 2010 and 2015 and belong to the Suspense genre.</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>196.4532153606415</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-1.6328125</v>
+      </c>
+      <c r="J50" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>7.033237457275391</v>
+      </c>
+      <c r="F51" t="n">
+        <v>331.7734375</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. The provided context discusses the origins and development of NoSQL databases, specifically MongoDB, but it does not mention when SQL was originally released.</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>196.4532153606415</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-1.6328125</v>
+      </c>
+      <c r="J51" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>28.90879082679749</v>
+      </c>
+      <c r="F52" t="n">
+        <v>331.484375</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary search is a searching algorithm used on sorted arrays or lists of values. It works by repeatedly dividing the search interval in half, by comparing the target value to the middle element. If the target value matches the middle element, it returns the index of the found value. If the target value is less than the middle element, the search continues on the lower half, and if it's greater, the search continues on the upper half. This way, binary search can reduce the time complexity to O(log n) in the best case scenario when the target is found at the middle of the array, but its worst-case time complexity is O(log n) as well, which occurs when the target is not present in the array.</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>97.82233476638794</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>14.28693127632141</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.93359375</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To answer this query, I would need more information about the specific rules for AVL trees regarding height balancing and rotation operations. However, since the context provided discusses B-Tree operations, I don't have enough information to directly address the question about an AVL tree. If you could provide some additional context or guidelines related to AVL trees, I would be able to help further with that specific question.</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>97.82233476638794</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>35.42312669754028</v>
+      </c>
+      <c r="F54" t="n">
+        <v>332.8515625</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACID-compliant transactions consist of four properties: Atomicity, Consistency, Isolation, and Durability.
+1. Atomicity: A transaction is treated as an atomic unit - it is either fully executed or not executed at all. This ensures that a transaction's changes persist as a single unit, with no partial updates to the database.
+2. Consistency: A transaction takes the database from one consistent state to another consistent state. This means that all data meets integrity constraints and the result of a transaction does not violate any rules or regulations.
+3. Isolation: Transactions are isolated from each other, ensuring that concurrent transactions do not interfere with each other's operations. This is often achieved through locking mechanisms, where resources are locked until a transaction is complete.
+4. Durability: Once a transaction is completed and committed successfully, its changes are permanent, even in the event of a system failure. Committed transactions are preserved to ensure data persistence and stability.</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>97.82233476638794</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>36.08488249778748</v>
+      </c>
+      <c r="F55" t="n">
+        <v>332.640625</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Based on the provided context, the closest match for the query seems to be finding movies within a specific genre (in this case, suspense) and a specific range of years. However, none of the examples directly show this combination.
+Here's a MongoDB query that should return the desired results:
 ```mongodb
 dbmovies.find({
-    year: {
-        $gte: 2010,
-        $lte: 2015
-    },
+    year: { $gte: 2010, $lte: 2015 },
     genres: "Suspense"
-}).projection({
-    title: 1, _id: 0
 })
 ```
-This query will return the titles of all movies from the suspense genre that were released between 2010 and 2015. The `$gte` and `$lte` operators are used for greater than or equal to and less than or equal to, respectively, and the `projection` option is used to only return the title field without the ObjectId (_id).</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>17.13429164886475</v>
-      </c>
-      <c r="I25" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+This query will find all documents in the 'dbmovies' collection where the 'year' field is greater than or equal to 2010 and less than or equal to 2015, and the 'genres' field contains "Suspense". The result will be an array of movie titles that meet these conditions.</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>97.82233476638794</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sentence-transformers/all-mpnet-base-v2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4.796434879302979</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-4586.9375</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. The context provided does not mention the release date of SQL.</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>97.82233476638794</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>chroma</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>nomic-embed-text</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>mistral:latest</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>When was SQL originally released?</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>4.234650611877441</v>
-      </c>
-      <c r="F26" t="n">
-        <v>45.6328125</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I don't know, as the context provided does not specify when SQL was originally released.</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>17.13429164886475</v>
-      </c>
-      <c r="I26" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>chroma</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>nomic-embed-text</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>llama2</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>What is binary search?</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>51.21578192710876</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-44.2265625</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Binary search is a searching algorithm that works on sorted data structures, such as arrays or lists. It has a time complexity of O(log n) in the best and average cases, which makes it more efficient than linear search for larger datasets. In a binary search, the array is divided in half at each step, and the middle element is checked against the target value. If the target value matches the middle element, its index is returned. If not, based on whether the target is less or greater than the middle element, the search continues either on the left or right half of the array. This process repeats until the target value is found or the search area is empty. In Python, a simple implementation of binary search might look like this:
+      <c r="E57" t="n">
+        <v>47.67445516586304</v>
+      </c>
+      <c r="F57" t="n">
+        <v>47.63671875</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary search is a searching algorithm that works on sorted data. It repeatedly divides the search interval in half, finding the middle element and comparing that element to the target value. If the target value matches the middle element, it returns the index of where the target is located. If not, based on whether the target is less than or greater than the middle element, it either discards the upper or lower half of the interval and repeats the process with the remaining half. The time complexity of best case (direct match) is O(1), while worst case (when the target is not in the array) is O(log n). Here is an example implementation in Python:
 ```python
 def binarysearcharr(target, arr, left, right):
     if left &gt; right:
-        return -1  # target not found
+        return 1 # Target was not found
     mid = (left + right) // 2
     if arr[mid] == target:
         return mid
@@ -1593,191 +3023,1310 @@
 ```</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>17.13429164886475</v>
-      </c>
-      <c r="I27" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="H57" t="n">
+        <v>14.92038512229919</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>chroma</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>nomic-embed-text</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>llama2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>51.18149876594543</v>
-      </c>
-      <c r="F28" t="n">
-        <v>45.51953125</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> To answer this question, we would need a walkthrough for AVL trees similar to the one provided for B+ Trees. However, based on the general principles of AVL trees, when inserting 23 into the given AVL tree (30, 25, 35, 20), there will be an imbalance case if we follow these steps:
-1. Start at the root 30. Since 23 is less than 30, move to the left child node.
-2. There is no left child for 30, so a new leaf node is created with 23 and it becomes the left child of 30.
-3. Now we have an imbalance because a single node (with 23) was added at the bottom level and there is only one node at this level initially. In AVL trees, the number of nodes at each level should ideally be twice the number of nodes at the next lower level. This imbalance will cause a rotation or rebalancing operation to maintain the height balance property of the AVL tree.
-As for which specific rotation or rebalancing operation will occur, it depends on the exact rules for handling such imbalances in AVL trees. I recommend looking up a walkthrough or tutorial that explains the insertion process in AVL trees to understand the exact steps and operations involved when adding 23 to the given tree.</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>17.13429164886475</v>
-      </c>
-      <c r="I28" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="E58" t="n">
+        <v>58.02466726303101</v>
+      </c>
+      <c r="F58" t="n">
+        <v>46.56640625</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To answer this query, we need to understand that AVL trees maintain balance by adjusting the heights of nodes during insertions and deletions. Since the context provided pertains to B-trees, not AVL trees, I don't have specific information about the imbalance case created when inserting 23 into an AVL tree with elements 30, 25, 35, 20 (where 30 is at the root). However, let me provide a general idea of how AVL trees maintain balance and what imbalance cases can occur during insertions.
+In an AVL tree, the difference between heights of the left and right subtrees of a node is always between -1 and +1. To maintain this balance, rotations are performed when necessary. During an insertion, if a node splits, it creates a situation where one of its children becomes too tall (height increase by 1), causing the difference in heights to exceed the allowed range (+2). This is known as a height imbalance or violation of the AVL property at that node.
+When you add 23 to an AVL tree with elements 30, 25, 35, and 20 (where 30 is at the root), the new tree structure would need to be constructed based on the insertion order. The imbalance case created when adding 23 depends on where it should be placed in the tree to maintain the AVL property. It could result in a height imbalance at that node, one of its children, or even an ancestor node if rotations don't resolve the issue immediately. Without knowing the exact sequence of insertions and rotations during this operation, it is challenging to provide more specific information about the imbalance case created when adding 23.</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>14.92038512229919</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>chroma</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>nomic-embed-text</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>llama2</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>Succinctly describe the four components of ACID compliant transactions.</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>24.05105018615723</v>
-      </c>
-      <c r="F29" t="n">
-        <v>46.234375</v>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="E59" t="n">
+        <v>19.73847770690918</v>
+      </c>
+      <c r="F59" t="n">
+        <v>46.71875</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The four components of ACID compliant transactions are Atomicity, Consistency, Isolation, and Durability (ACID).
+* Atomicity ensures that a transaction is treated as an atomic unit, either fully executed or not at all.
+* Consistency means that a transaction takes the database from one consistent state to another consistent state where all data meets integrity constraints.
+* Isolation ensures that concurrent execution of transactions does not interfere with each other.
+* Durability guarantees that once a transaction is completed and committed successfully, its changes are permanent, even in the event of a system failure.</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>14.92038512229919</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>8.465653657913208</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-45.35546875</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 } genres: "Suspense" project id 0 title 1</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>14.92038512229919</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3.72871732711792</v>
+      </c>
+      <c r="F61" t="n">
+        <v>45.5859375</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. The provided context does not mention when SQL was originally released.</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>14.92038512229919</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>28.12542605400085</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary Search is a searching algorithm that operates on a sorted array or list of values by repeatedly dividing the search interval in half. The position of the target value within the array can be identified quickly, as long as the input array remains sorted. In a binary tree context, a Binary Search Tree (BST) is a tree data structure where every node in the left subtree is less than its parent and every node in the right subtree is greater than its parent. This makes searching for values in a BST more efficient compared to linear searches, especially when dealing with large datasets.</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>154.0109696388245</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>64.46806526184082</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this context, we're dealing with a B Tree rather than an AVL Tree. The question asks about adding 23 to an AVL tree but the provided context describes a B Tree. To answer the query accurately, let's first assume that you meant to ask about inserting 23 into a B Tree instead.
+When inserting 23 in a B Tree with m=4 (which means each node can have up to m-1 keys and m leaves), the tree initially has 4 keys: 30, 25, 35, 20. The root is full and needs to split if we want to insert 23. However, the context does not describe the exact split scenario when adding 23.
+In a B Tree, nodes may be split when they become too full. If the node to be inserted would cause a leaf to split, it instead triggers a split at its parent node if necessary, moving up the tree until we reach the root (or an already non-full internal node). The root is allowed to have more than m-1 keys, but only up to 2m-1 keys.
+Therefore, when inserting 23 into the B Tree, it causes a potential imbalance since the root may need to be split if it has more than 2m-1 = 6 keys (which is the case with our example of [30, 25, 35, 20]).
+Unfortunately, we don't know the exact imbalance created in this scenario because the context does not describe what happens when the root splits. If you need further clarification or information about AVL trees, I would be happy to help!</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>154.0109696388245</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>32.04521083831787</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACID-compliant transactions have four main properties: Atomicity, Consistency, Isolation, and Durability (ACID).
+1. Atomicity ensures that a transaction is treated as an atomic unit; it is either fully executed or not at all.
+2. Consistency guarantees that a transaction takes the database from one consistent state to another consistent state, ensuring data integrity constraints are met.
+3. Isolation ensures that two transactions (T1 and T2) do not affect each other during execution, even if they occur simultaneously.
+4. Durability states that once a transaction is successfully committed, its changes become permanent and are preserved in the event of system failures.</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>154.0109696388245</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>26.60163068771362</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lt: 2016 } and genres: "Suspense"
+SQL Equivalent:
+SELECT title FROM movies WHERE year BETWEEN 2010 AND 2015 AND Drama IN SELECT genre FROM moviegenres WHERE moviegenresmovieid = id
+Assumes a separate moviegenres table storing genres per movie.</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>154.0109696388245</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>28.13576030731201</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't have specific information about when SQL was originally released as the provided context discusses NoSQL and MongoDB. However, SQL (Structured Query Language) is a standard language for managing data held in a relational database management system. It was first developed by IBM in the mid-1970s, with the first formal specification, SQL-86, published by the American National Standards Institute (ANSI) in 1986 and the International Organization for Standardization (ISO) in 1987.</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>154.0109696388245</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>43.39702248573303</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary search is an efficient algorithm used for finding the location of a specific value (target) in a sorted array. The algorithm works by repeatedly dividing the array in half, and comparing the target value with the middle element of the array. Depending on the comparison result, the algorithm either discards the upper or lower half of the array and repeats the process. The process continues until the target is found or it's established that the target doesn't exist in the array. In the best case, binary search requires only one comparison to find the target at the middle position. In the worst-case scenario, if the target isn't in the array, it can require log2(n) comparisons. Binary search is more efficient than linear search, but less efficient for random access because the sorted array needs to be maintained. It can also be implemented as a data structure called a Binary Search Tree where every node in the left subtree is less than its parent and every node in the right subtree is greater than its parent.</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>16.45136117935181</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="J67" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>18.66670417785645</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. The provided context does not discuss AVL trees or describe how to add an element to an AVL tree specifically. To answer this question, we would need to refer to a resource that explains the rules for balancing AVL trees and demonstrates how to insert elements into one.</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>16.45136117935181</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="J68" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>32.91459202766418</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.00390625</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, and Durability) compliant transactions are as follows:
-1. Atomicity: A transaction is treated as an atomic unit, meaning it is either fully executed or not executed at all.
+1. Atomicity: Transactions are treated as an atomic unit, meaning they are either fully executed or not at all.
+2. Consistency: A transaction takes the database from one consistent state to another consistent state, ensuring that all integrity constraints are met.
+3. Isolation: Multiple transactions can run concurrently without interfering with each other. This helps prevent issues like Dirty Read, Nonrepeatable Read, and Phantom Reads.
+4. Durability: Once a transaction is committed successfully, its changes become permanent even in the event of system failure.</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>16.45136117935181</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="J69" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>41.79354476928711</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the context provided, it appears that there is no explicit example for a query similar to the one you asked. However, we can infer the structure from the examples given. Here's how I would write the MongoDB query for your case:
+MongoDB Query:
+```
+dbmoviesfind({"year": { "$gte": 2010, "$lte": 2015 }, "genres": "Suspense"})
+```
+This query will return the titles of all movies from the suspense genre that were released between 2010 and 2015. The `$gte` and `$lte` operators are used for range queries, `year` is the release year field, and `genres` is the genre field where we're looking for the "Suspense" value.</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>16.45136117935181</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="J70" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>mistral:latest</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>21.16159534454346</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't have specific information on when SQL was originally released from the provided contexts. However, it is a widely used language for managing and manipulating databases, so its history may not be directly related to the introductions of NoSQL or MongoDB. If you have more details or a different context, I would be happy to help find the answer!</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>16.45136117935181</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="J71" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>43.79656958580017</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.12890625</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary search is a search algorithm that works on sorted data. It divides the search interval in half, by repeatedly discarding intervals that cannot contain the target value. If the value of the search key matches the value in the middle element of the interval, the search ends there. If not, the process repeats on one of the subintervals (the left or right) based on whether the search key is less than or greater than the middle element. The time complexity for best case (direct match) is O(1), and worst case (when target is not found) is O(log n). Here's an implementation example in Python:
+```python
+def binarysearcharr(target, left, right, arr):
+   lenarr = right - left + 1
+   while left &lt; right:
+      mid = (left + right) // 2
+      if arr[mid] == target:
+         return mid
+      elif arr[mid] &lt; target:
+         left = mid + 1
+      else:
+         right = mid - 1
+   return 1 # returns 1 when target is not found
+```</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>14.92038512229919</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>9.357640981674194</v>
+      </c>
+      <c r="F73" t="n">
+        <v>46.15625</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. The context provided is about B-Tree operations, not AVL trees. To answer this question, we would need a similar walkthrough for an AVL tree with the given elements and then analyze the imbalance case when adding 23.</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>14.92038512229919</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>chroma</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>23.73786354064941</v>
+      </c>
+      <c r="F74" t="n">
+        <v>46.40625</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, Durability) compliant transactions are as follows:
+1. Atomicity: A transaction is treated as an atomic unit where it is either fully executed or no parts of it are executed.
 2. Consistency: A transaction takes a database from one consistent state to another consistent state, ensuring all data meets integrity constraints.
-3. Isolation: Each transaction is isolated from other transactions to ensure concurrent execution does not interfere with the correctness of the transactions.
-4. Durability: Once a transaction is successfully completed and committed, its changes are permanent, even in the event of a system failure.</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>17.13429164886475</v>
-      </c>
-      <c r="I29" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+3. Isolation: Each transaction is isolated from other transactions, so the execution of one transaction does not interfere with the execution of others.
+4. Durability: Once a transaction is completed and committed successfully, its changes are permanent even in the event of a system failure. The committed transactions are preserved.</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>14.92038512229919</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>chroma</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>nomic-embed-text</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>llama2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>34.0844132900238</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-45.41015625</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> In this case, we can use the `aggregate` function in MongoDB to achieve the desired result. Assuming you have a separate collection for genres called `movies_genres`, here's how you could write the query:
-```javascript
-db.movies.aggregate([
-  {
-    $match: {
-      year: { $gte: 2010, $lte: 2015 },
-      genres: "Suspense"
-    }
-  },
-  {
-    $project: {
-      _id: 0,
-      title: 1
-    }
-  }
-])
+      <c r="E75" t="n">
+        <v>31.39964628219604</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-44.765625</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this case, assuming you have separate collections for `movies` and `genres`, the MongoDB query would be as follows:
+```mongodb
+dbmovies.find({
+    year: {
+        $gte: 2010,
+        $lte: 2015
+    },
+    genres: "Suspense"
+}).projection({ _id: 0, title: 1 })
 ```
-This query will return the titles of all movies that were released between 2010 and 2015, and belong to the suspense genre.</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>17.13429164886475</v>
-      </c>
-      <c r="I30" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+This query searches the `movies` collection for documents where the `year` field is greater than or equal to 2010 and less than or equal to 2015. Additionally, it filters only those documents that have the "Suspense" genre in their genres array. The projection clause specifies that we want to return only the `title` field and not the `_id`.</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>14.92038512229919</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>chroma</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>nomic-embed-text</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>llama2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>When was SQL originally released?</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>7.965246200561523</v>
-      </c>
-      <c r="F31" t="n">
-        <v>46.3125</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I don't know. The provided context does not specify when SQL was originally released as it primarily discusses the development and history of NoSQL databases and specific types like MongoDB, rather than SQL itself.</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>17.13429164886475</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="E76" t="n">
+        <v>4.164888620376587</v>
+      </c>
+      <c r="F76" t="n">
+        <v>45.7265625</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. The context provided does not contain information about when SQL was originally released.</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>14.92038512229919</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>37.88340544700623</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.01171875</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary Search is a searching algorithm used on a sorted array or a sorted list. It works by repeatedly dividing the search interval in half, by comparing the target value with the middle element of the interval. If the target value matches the middle element, it returns the index where the target was found. If not, based on whether the target is less than or greater than the middle element, it reduces either the lower or the upper bounds of the search interval respectively and continues the process recursively until the target is found or the search interval becomes empty, at which point we can conclude that the target does not exist in the array. The best-case scenario for binary search occurs when the target value is present at the middle of the array, requiring a single comparison. The worst case occurs when the target is either the smallest or the largest value in the sorted array, requiring log2(n) comparisons.</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>154.0109696388245</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>93.67720890045166</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.109375</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To answer your query, we need to first understand that an AVL tree is a self-balancing binary search tree where the height difference between the two subtrees of a node cannot be more than one. Now, let's create the AVL tree with the given elements (30, 25, 35, 20) and then insert 23 to see the imbalance case that might occur.
+First, we create the AVL tree:
+- The root is 30
+- Left child of 30 is 25 (balanced)
+  - Left child of 25 is 20 (balanced)
+- Right child of 30 is 35 (balanced)
+Now, let's insert 23 as a new node:
+1. Since the root is occupied by 30, we move down to its left child, which is 25.
+2. Since 23 is less than 25, we go further down to its left child, but there is no such child available. So, we create a new node with 23 as its key and make it the new left child of 25 (which maintains balance).
+3. Now, since the subtree under 25 (with 20 and the new 23 node) has more nodes than the right subtree (just 35), we have to rebalance the tree. This involves rotating the tree a little bit to fix the imbalance.
+4. In this case, since it's a left-heavy subtree, we perform a single rotation on the right of node 25, which moves 25 up and swaps its position with its new left child (the 23 node). This balances the tree again.
+However, if we continue inserting more nodes (let's say 18) into the left subtree of 23 while keeping the right subtree empty, the imbalance would increase, and we'll eventually have an AVL tree with a degenerate case called "zig-zig" or double rotation. This is not the exact scenario in your query but provides insight into the potential imbalance that could occur in an AVL tree when inserting elements.</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>154.0109696388245</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>34.27679920196533</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.00390625</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The four components of ACID (Atomicity, Consistency, Isolation, and Durability) compliant transactions are as follows:
+1. Atomicity: A transaction is treated as an atomic unit; it is fully executed or no parts of it are executed.
+2. Consistency: A transaction takes the database from one consistent state to another consistent state where all data meets integrity constraints.
+3. Isolation: Two transactions cannot affect each other, even when being executed at the same time.
+4. Durability: Once a transaction is completed and committed successfully, its changes are permanent, and they remain so even in case of system failure.</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>154.0109696388245</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>30.25729537010193</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.01171875</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dbmoviesfind year: { $gte: 2010, $lte: 2015 }, genres: "Suspense" SQL Equivalent: SELECT title FROM movies WHERE year BETWEEN 2010 AND 2015 AND Drama NOT IN SELECT genre FROM moviegenres WHERE moviegenresmovieid = moviesid AND genre != 'Suspense' Assumes a separate moviegenres table storing genres per movie.</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>154.0109696388245</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>milvus</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>22.37549352645874</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01171875</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SQL (Structured Query Language) was not originally mentioned in the given context, but it is a standard language for managing and manipulating databases that was first introduced by IBM in the mid-1970s. It was initially used with relational database management systems such as Oracle, MySQL, and PostgreSQL.</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>154.0109696388245</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>What is binary search?</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>27.92355012893677</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Binary Search is a search algorithm used to find the position of a specific value (target) within a sorted array. It works by repeatedly dividing the search interval in half until the target is found or the search interval becomes empty. In each step, the algorithm compares the target value with the middle element of the current search interval and then removes half of the elements from the remaining search space based on whether the middle element is greater than or less than the target value.</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>16.45136117935181</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="J82" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Add 23 to the AVL tree with elements 30, 25, 35, 20 (30 is at the root). what imbalance case is created when inserting 23?</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>31.22847104072571</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. The provided context does not discuss or explain the rules for AVL trees. However, in an AVL tree, a node's height difference between its left and right children determines balance. During an insertion operation, if this height difference becomes 2, it causes imbalance. To check the specific case when adding 23 to the given AVL tree, we would need to understand the existing structure of the tree (in terms of left and right child nodes) from the context provided, which is not feasible as it does not provide enough information about an AVL tree.</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>16.45136117935181</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="J83" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Succinctly describe the four components of ACID compliant transactions.</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>35.90247488021851</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ACID properties refer to Atomicity, Consistency, Isolation, and Durability.
+  1. Atomicity: A transaction is treated as an atomic unit, either fully executed or none of it is executed.
+  2. Consistency: A transaction takes a database from one consistent state to another consistent state, where all data meets integrity constraints.
+  3. Isolation: Two transactions can't affect each other, even if they are executing at the same time. Dirty Read, Nonrepeatable Read, and Phantom Reads are potential issues when reading data concurrently.
+  4. Durability: Once a transaction is completed and committed successfully, its changes are permanent and remain even in the event of a system failure.</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>16.45136117935181</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="J84" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Write a Mongo query based on the movies data set that returns the titles of all movies released between 2010 and 2015 from the suspense genre?</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>51.41903781890869</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To find the titles of all movies released between 2010 and 2015 from the suspense genre in MongoDB, you can use the following query:
+```
+dbmovies.find({
+    year: { $gte: 2010, $lte: 2015 },
+    genres: "Suspense"
+}).projection({ title: 1 })
+```
+This query will return the 'title' field for all documents in the `dbmovies` collection where the 'year' is between 2010 and 2015 and the 'genres' field contains "Suspense". The `$gte` and `$lte` operators are used for range queries, and the square brackets around 'Suspense' indicate that we are looking for an exact match. Finally, the projection (`.projection({ title: 1 })`) is used to only return the 'title' field from each matching document.</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>16.45136117935181</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="J85" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>nomic-embed-text</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>llama2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>When was SQL originally released?</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>15.83180785179138</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-12.734375</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know the exact year when SQL was originally released as there is no relevant information about SQL in the provided contexts.</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>16.45136117935181</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="J86" t="n">
         <v>300</v>
       </c>
     </row>
